--- a/storage/templates/company-excel.xlsx
+++ b/storage/templates/company-excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">1-11-1 No. of Employee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Category 4-1-2</t>
   </si>
   <si>
     <t xml:space="preserve">Product1</t>
@@ -352,7 +355,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +380,12 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -419,7 +428,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -445,6 +454,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -573,10 +586,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CN4"/>
+  <dimension ref="A1:CO4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U3" activeCellId="0" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -601,79 +614,79 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="3" width="63.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="3" width="53.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="5.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="97.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="35.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="58.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="33.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="32.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="24.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="27.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="21.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="30.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="38.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="26.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="67.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="6.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="90.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="19.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="34.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="38.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="6.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="34.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="14.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="26.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="34.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="6.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="32.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="12.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="26.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="14.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="23.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="4.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="20.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="12.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="21.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="6.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="2.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="35.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="6.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="37.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="51.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="35.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="54.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="23.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="41.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="3" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="1" width="28.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="1" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="39.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="1" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="1" width="22.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="1" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="1" width="22.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="1" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="1" width="18.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="1" width="15.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="1" width="26.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="1" width="15.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="3" width="27.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="33.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="3" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="3" width="69.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="3" width="22.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="3" width="45.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="3" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="3" width="39.04"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="93" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="97.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="35.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="58.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="33.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="32.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="24.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="27.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="21.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="30.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="38.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="26.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="67.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="90.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="19.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="34.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="38.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="6.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="34.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="14.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="26.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="34.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="6.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="32.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="12.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="26.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="1" width="13.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="1" width="5.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="1" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="1" width="14.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="23.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="1" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="4.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="12.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="1" width="21.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="1" width="6.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="2.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="35.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="6.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="37.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="51.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="35.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="54.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="1" width="23.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="1" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="1" width="41.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="1" width="15.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="3" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="1" width="28.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="1" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="1" width="39.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="76" min="76" style="1" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="77" min="77" style="1" width="22.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="78" style="1" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="1" width="22.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="1" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="1" width="18.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="1" width="15.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="1" width="26.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="1" width="15.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="3" width="27.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="3" width="33.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="3" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="88" min="88" style="3" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="89" min="89" style="3" width="69.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="90" min="90" style="3" width="22.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="91" style="3" width="45.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="3" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="3" width="39.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="94" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -737,7 +750,7 @@
       <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="4" t="s">
@@ -890,93 +903,96 @@
       <c r="BS1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="BT1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="BU1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BV1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BW1" s="8" t="s">
         <v>74</v>
       </c>
       <c r="BX1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="BY1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="8" t="s">
+      <c r="CA1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CB1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="8" t="s">
+      <c r="CC1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CD1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CE1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CF1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CG1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="CH1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="CI1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="CJ1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="8" t="s">
+      <c r="CK1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CL1" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CM1" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CN1" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="CO1" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
+    <row r="2" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
     </row>
     <row r="4" customFormat="false" ht="51.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -995,62 +1011,63 @@
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="15"/>
       <c r="AI4" s="15"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
       <c r="AN4" s="15"/>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
       <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="14"/>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="16"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14"/>
-      <c r="BC4" s="16"/>
-      <c r="BD4" s="14"/>
-      <c r="BE4" s="3"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="15"/>
       <c r="BF4" s="3"/>
       <c r="BG4" s="3"/>
       <c r="BH4" s="3"/>
       <c r="BI4" s="3"/>
       <c r="BJ4" s="3"/>
-      <c r="BK4" s="17"/>
-      <c r="BL4" s="17"/>
-      <c r="BM4" s="17"/>
-      <c r="BN4" s="17"/>
-      <c r="BO4" s="17"/>
-      <c r="BP4" s="17"/>
-      <c r="BQ4" s="17"/>
-      <c r="BR4" s="17"/>
-      <c r="BS4" s="17"/>
-      <c r="BT4" s="17"/>
-      <c r="BU4" s="17"/>
-      <c r="BV4" s="17"/>
-      <c r="BW4" s="17"/>
-      <c r="BX4" s="17"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18"/>
+      <c r="BO4" s="18"/>
+      <c r="BP4" s="18"/>
+      <c r="BQ4" s="18"/>
+      <c r="BR4" s="18"/>
+      <c r="BS4" s="18"/>
+      <c r="BT4" s="18"/>
+      <c r="BU4" s="18"/>
+      <c r="BV4" s="18"/>
+      <c r="BW4" s="18"/>
+      <c r="BX4" s="18"/>
       <c r="BY4" s="18"/>
-      <c r="BZ4" s="17"/>
+      <c r="BZ4" s="19"/>
       <c r="CA4" s="18"/>
-      <c r="CB4" s="3"/>
+      <c r="CB4" s="19"/>
       <c r="CC4" s="3"/>
       <c r="CD4" s="3"/>
       <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="U2:Z2"/>
-    <mergeCell ref="AA2:AF2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
